--- a/sprawozdania LPF2/c2/c2.xlsx
+++ b/sprawozdania LPF2/c2/c2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="36">
   <si>
     <t>lp</t>
   </si>
@@ -102,18 +102,6 @@
     <t>$u_C(\omega)~[\frac{rad}{s}]$</t>
   </si>
   <si>
-    <t>Suma</t>
-  </si>
-  <si>
-    <t>Średnia</t>
-  </si>
-  <si>
-    <t>Suma bieżąca</t>
-  </si>
-  <si>
-    <t>Liczba</t>
-  </si>
-  <si>
     <t>uw</t>
   </si>
   <si>
@@ -143,6 +131,9 @@
   <si>
     <t>$u(\omega_r)~[rad/s]$</t>
   </si>
+  <si>
+    <t>w</t>
+  </si>
 </sst>
 </file>
 
@@ -150,8 +141,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="179" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -208,20 +199,20 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -289,6 +280,19 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:errBars>
             <c:errDir val="x"/>
             <c:errBarType val="both"/>
@@ -443,6 +447,55 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.4661752635115971E-2"/>
+                  <c:y val="4.7234556888092494E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pl-PL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:errBars>
             <c:errDir val="x"/>
             <c:errBarType val="both"/>
@@ -597,6 +650,19 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:errBars>
             <c:errDir val="x"/>
             <c:errBarType val="both"/>
@@ -723,7 +789,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1112,57 +1177,57 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$102:$B$117</c:f>
+              <c:f>Arkusz1!$F$102:$F$117</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0" formatCode="0.0000">
-                  <c:v>2.1629999999999998</c:v>
+                <c:pt idx="0">
+                  <c:v>0.97149149999999973</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.371</c:v>
+                  <c:v>1.5398554999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0199999999999996</c:v>
+                  <c:v>1.8452099999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2</c:v>
+                  <c:v>2.4004000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.98</c:v>
+                  <c:v>2.7673900000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.62</c:v>
+                  <c:v>3.0685100000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.78</c:v>
+                  <c:v>3.1437900000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.89</c:v>
+                  <c:v>3.1955450000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>3.2473000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.14</c:v>
+                  <c:v>3.3131699999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.61</c:v>
+                  <c:v>3.5343050000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.5500000000000007</c:v>
+                  <c:v>3.9765750000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.0299999999999994</c:v>
+                  <c:v>4.2024149999999993</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.31</c:v>
+                  <c:v>4.8046550000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.92</c:v>
+                  <c:v>5.5621599999999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.69</c:v>
+                  <c:v>5.9244449999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1264,63 +1329,63 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$I$102:$I$119</c:f>
+              <c:f>Arkusz1!$M$102:$M$119</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
-                <c:pt idx="0" formatCode="0.0000">
-                  <c:v>2.569</c:v>
+                <c:pt idx="0">
+                  <c:v>1.1625144999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.161</c:v>
+                  <c:v>1.4410505</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.03</c:v>
+                  <c:v>1.849915</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.19</c:v>
+                  <c:v>2.3956950000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.33</c:v>
+                  <c:v>2.9320650000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.44</c:v>
+                  <c:v>2.9838200000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.59</c:v>
+                  <c:v>3.054395</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.78</c:v>
+                  <c:v>3.1437900000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.9</c:v>
+                  <c:v>3.20025</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.95</c:v>
+                  <c:v>3.2237750000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.04</c:v>
+                  <c:v>3.2661199999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.21</c:v>
+                  <c:v>3.3461050000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.35</c:v>
+                  <c:v>3.411975</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.54</c:v>
+                  <c:v>3.5013700000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.33</c:v>
+                  <c:v>3.873065</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.2899999999999991</c:v>
+                  <c:v>4.3247449999999992</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.08</c:v>
+                  <c:v>4.6964399999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.85</c:v>
+                  <c:v>5.0587249999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1428,69 +1493,69 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$P$102:$P$121</c:f>
+              <c:f>Arkusz1!$T$102:$T$121</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
-                <c:pt idx="0" formatCode="0.0000">
-                  <c:v>2.6179999999999999</c:v>
+                <c:pt idx="0">
+                  <c:v>1.1855689999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4980000000000002</c:v>
+                  <c:v>1.5996090000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.13</c:v>
+                  <c:v>1.8969649999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.95</c:v>
+                  <c:v>2.282775</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.73</c:v>
+                  <c:v>2.6497650000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6</c:v>
+                  <c:v>3.0590999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.75</c:v>
+                  <c:v>3.1296750000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.9</c:v>
+                  <c:v>3.20025</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.95</c:v>
+                  <c:v>3.2237750000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>3.2473000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.05</c:v>
+                  <c:v>3.2708249999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.19</c:v>
+                  <c:v>3.3366950000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.37</c:v>
+                  <c:v>3.4213849999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.51</c:v>
+                  <c:v>3.4872549999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.65</c:v>
+                  <c:v>3.5531250000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.24</c:v>
+                  <c:v>3.8307199999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.86</c:v>
+                  <c:v>4.1224299999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.25</c:v>
+                  <c:v>4.3059250000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.38</c:v>
+                  <c:v>4.8375900000000005</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.16</c:v>
+                  <c:v>5.20458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1586,8 +1651,6 @@
         <c:axId val="566836456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="7.7"/>
-          <c:min val="6.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1623,7 +1686,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pl-PL"/>
-                  <a:t>Napięcie zasilające [V]</a:t>
+                  <a:t>Częstość [rad/s]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1697,8 +1760,6 @@
         <c:crossAx val="566836784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5.000000000000001E-2"/>
-        <c:minorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="566836784"/>
@@ -3409,8 +3470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E6CBD9-356D-4140-871D-BBCA69B5C3F1}">
   <dimension ref="A1:AC151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W103" sqref="W103"/>
+    <sheetView tabSelected="1" topLeftCell="E70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P148" sqref="P148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3631,11 +3692,11 @@
         <v>0.12</v>
       </c>
       <c r="G34" s="2">
-        <f>LN(C34/C35)</f>
+        <f t="shared" ref="G34:G46" si="4">LN(C34/C35)</f>
         <v>0.10821358464023279</v>
       </c>
       <c r="H34" s="1">
-        <f>ROUNDUP(SQRT(     (1/C34)^2   * D34^2     + (1/C35)^2   *D34^2 ),3)</f>
+        <f t="shared" ref="H34:H42" si="5">ROUNDUP(SQRT(     (1/C34)^2   * D34^2     + (1/C35)^2   *D34^2 ),3)</f>
         <v>1.2E-2</v>
       </c>
       <c r="J34" s="3">
@@ -3662,11 +3723,11 @@
         <v>0.12</v>
       </c>
       <c r="Q34" s="2">
-        <f>LN(M34/M35)</f>
+        <f t="shared" ref="Q34:Q42" si="6">LN(M34/M35)</f>
         <v>0.29849298855599671</v>
       </c>
       <c r="R34" s="1">
-        <f>ROUNDUP(SQRT(     (1/M34)^2   * N34^2     + (1/M35)^2   *N34^2 ),3)</f>
+        <f t="shared" ref="R34:R39" si="7">ROUNDUP(SQRT(     (1/M34)^2   * N34^2     + (1/M35)^2   *N34^2 ),3)</f>
         <v>1.6E-2</v>
       </c>
       <c r="U34" s="2">
@@ -3719,15 +3780,15 @@
         <v>11.63</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" ref="F35:F49" si="4">ROUNDUP(SQRT(0.01 ^ 2 / 3 + 0.2 ^ 2 / 3),2)</f>
+        <f t="shared" ref="F35:F49" si="8">ROUNDUP(SQRT(0.01 ^ 2 / 3 + 0.2 ^ 2 / 3),2)</f>
         <v>0.12</v>
       </c>
       <c r="G35" s="2">
-        <f>LN(C35/C36)</f>
+        <f t="shared" si="4"/>
         <v>0.12136085700426734</v>
       </c>
       <c r="H35" s="1">
-        <f>ROUNDUP(SQRT(     (1/C35)^2   * D35^2     + (1/C36)^2   *D35^2 ),3)</f>
+        <f t="shared" si="5"/>
         <v>1.3000000000000001E-2</v>
       </c>
       <c r="J35" s="1" t="s">
@@ -3743,22 +3804,22 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" ref="N35:N45" si="5">ROUNDUP(0.1/SQRT(3),3)</f>
+        <f t="shared" ref="N35:N45" si="9">ROUNDUP(0.1/SQRT(3),3)</f>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="O35" s="3">
         <v>3.93</v>
       </c>
       <c r="P35" s="1">
-        <f t="shared" ref="P35:P45" si="6">ROUNDUP(SQRT(0.01 ^ 2 / 3 + 0.2 ^ 2 / 3),2)</f>
+        <f t="shared" ref="P35:P45" si="10">ROUNDUP(SQRT(0.01 ^ 2 / 3 + 0.2 ^ 2 / 3),2)</f>
         <v>0.12</v>
       </c>
       <c r="Q35" s="2">
-        <f>LN(M35/M36)</f>
+        <f t="shared" si="6"/>
         <v>0.30228087187293351</v>
       </c>
       <c r="R35" s="1">
-        <f>ROUNDUP(SQRT(     (1/M35)^2   * N35^2     + (1/M36)^2   *N35^2 ),3)</f>
+        <f t="shared" si="7"/>
         <v>2.2000000000000002E-2</v>
       </c>
       <c r="U35" s="1" t="s">
@@ -3774,22 +3835,22 @@
         <v>5.2</v>
       </c>
       <c r="Y35" s="1">
-        <f t="shared" ref="Y35:Y48" si="7">ROUNDUP(0.1/SQRT(3),3)</f>
+        <f t="shared" ref="Y35:Y48" si="11">ROUNDUP(0.1/SQRT(3),3)</f>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="Z35" s="1">
         <v>3.84</v>
       </c>
       <c r="AA35" s="1">
-        <f t="shared" ref="AA35:AA48" si="8">ROUNDUP(SQRT(0.01 ^ 2 / 3 + 0.2 ^ 2 / 3),2)</f>
+        <f t="shared" ref="AA35:AA48" si="12">ROUNDUP(SQRT(0.01 ^ 2 / 3 + 0.2 ^ 2 / 3),2)</f>
         <v>0.12</v>
       </c>
       <c r="AB35" s="2">
-        <f t="shared" ref="AB35:AB46" si="9">LN(X35/X36)</f>
+        <f t="shared" ref="AB35:AB45" si="13">LN(X35/X36)</f>
         <v>0.21357410029805909</v>
       </c>
       <c r="AC35" s="1">
-        <f t="shared" ref="AC35:AC45" si="10">ROUNDUP(SQRT(     (1/X35)^2   * Y35^2     + (1/X36)^2   *Y35^2 ),3)</f>
+        <f t="shared" ref="AC35:AC41" si="14">ROUNDUP(SQRT(     (1/X35)^2   * Y35^2     + (1/X36)^2   *Y35^2 ),3)</f>
         <v>1.8000000000000002E-2</v>
       </c>
     </row>
@@ -3811,15 +3872,15 @@
         <v>23.3</v>
       </c>
       <c r="F36" s="1">
+        <f t="shared" si="8"/>
+        <v>0.12</v>
+      </c>
+      <c r="G36" s="2">
         <f t="shared" si="4"/>
-        <v>0.12</v>
-      </c>
-      <c r="G36" s="2">
-        <f>LN(C36/C37)</f>
         <v>0.13815033848081718</v>
       </c>
       <c r="H36" s="1">
-        <f>ROUNDUP(SQRT(     (1/C36)^2   * D36^2     + (1/C37)^2   *D36^2 ),3)</f>
+        <f t="shared" si="5"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="J36" s="3">
@@ -3836,22 +3897,22 @@
         <v>3.4</v>
       </c>
       <c r="N36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="O36" s="3">
         <v>5.83</v>
       </c>
       <c r="P36" s="1">
+        <f t="shared" si="10"/>
+        <v>0.12</v>
+      </c>
+      <c r="Q36" s="2">
         <f t="shared" si="6"/>
-        <v>0.12</v>
-      </c>
-      <c r="Q36" s="2">
-        <f>LN(M36/M37)</f>
         <v>0.26826398659467937</v>
       </c>
       <c r="R36" s="1">
-        <f>ROUNDUP(SQRT(     (1/M36)^2   * N36^2     + (1/M37)^2   *N36^2 ),3)</f>
+        <f t="shared" si="7"/>
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="U36" s="2">
@@ -3868,22 +3929,22 @@
         <v>4.2</v>
       </c>
       <c r="Y36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="Z36" s="1">
         <v>5.81</v>
       </c>
       <c r="AA36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.12</v>
       </c>
       <c r="AB36" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.21130909366720696</v>
       </c>
       <c r="AC36" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
@@ -3905,15 +3966,15 @@
         <v>34.840000000000003</v>
       </c>
       <c r="F37" s="1">
+        <f t="shared" si="8"/>
+        <v>0.12</v>
+      </c>
+      <c r="G37" s="2">
         <f t="shared" si="4"/>
-        <v>0.12</v>
-      </c>
-      <c r="G37" s="2">
-        <f>LN(C37/C38)</f>
         <v>0.11778303565638365</v>
       </c>
       <c r="H37" s="1">
-        <f>ROUNDUP(SQRT(     (1/C37)^2   * D37^2     + (1/C38)^2   *D37^2 ),3)</f>
+        <f t="shared" si="5"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="K37" s="1">
@@ -3926,22 +3987,22 @@
         <v>2.6</v>
       </c>
       <c r="N37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="O37" s="3">
         <v>7.9</v>
       </c>
       <c r="P37" s="1">
+        <f t="shared" si="10"/>
+        <v>0.12</v>
+      </c>
+      <c r="Q37" s="2">
         <f t="shared" si="6"/>
-        <v>0.12</v>
-      </c>
-      <c r="Q37" s="2">
-        <f>LN(M37/M38)</f>
         <v>0.26236426446749106</v>
       </c>
       <c r="R37" s="1">
-        <f>ROUNDUP(SQRT(     (1/M37)^2   * N37^2     + (1/M38)^2   *N37^2 ),3)</f>
+        <f t="shared" si="7"/>
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="V37" s="1">
@@ -3954,22 +4015,22 @@
         <v>3.4</v>
       </c>
       <c r="Y37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="Z37" s="1">
         <v>7.79</v>
       </c>
       <c r="AA37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.12</v>
       </c>
       <c r="AB37" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.26826398659467937</v>
       </c>
       <c r="AC37" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
@@ -3991,15 +4052,15 @@
         <v>46.46</v>
       </c>
       <c r="F38" s="1">
+        <f t="shared" si="8"/>
+        <v>0.12</v>
+      </c>
+      <c r="G38" s="2">
         <f t="shared" si="4"/>
-        <v>0.12</v>
-      </c>
-      <c r="G38" s="2">
-        <f>LN(C38/C39)</f>
         <v>8.7011376989629699E-2</v>
       </c>
       <c r="H38" s="1">
-        <f>ROUNDUP(SQRT(     (1/C38)^2   * D38^2     + (1/C39)^2   *D38^2 ),3)</f>
+        <f t="shared" si="5"/>
         <v>1.8000000000000002E-2</v>
       </c>
       <c r="K38" s="1">
@@ -4012,22 +4073,22 @@
         <v>2</v>
       </c>
       <c r="N38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="O38" s="3">
         <v>9.84</v>
       </c>
       <c r="P38" s="1">
+        <f t="shared" si="10"/>
+        <v>0.12</v>
+      </c>
+      <c r="Q38" s="2">
         <f t="shared" si="6"/>
-        <v>0.12</v>
-      </c>
-      <c r="Q38" s="2">
-        <f>LN(M38/M39)</f>
         <v>0.35667494393873239</v>
       </c>
       <c r="R38" s="1">
-        <f>ROUNDUP(SQRT(     (1/M38)^2   * N38^2     + (1/M39)^2   *N38^2 ),3)</f>
+        <f t="shared" si="7"/>
         <v>5.1000000000000004E-2</v>
       </c>
       <c r="V38" s="1">
@@ -4040,22 +4101,22 @@
         <v>2.6</v>
       </c>
       <c r="Y38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="Z38" s="1">
         <v>9.7200000000000006</v>
       </c>
       <c r="AA38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.12</v>
       </c>
       <c r="AB38" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.26236426446749106</v>
       </c>
       <c r="AC38" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
@@ -4077,15 +4138,15 @@
         <v>58.1</v>
       </c>
       <c r="F39" s="1">
+        <f t="shared" si="8"/>
+        <v>0.12</v>
+      </c>
+      <c r="G39" s="2">
         <f t="shared" si="4"/>
-        <v>0.12</v>
-      </c>
-      <c r="G39" s="2">
-        <f>LN(C39/C40)</f>
         <v>0.14660347419187544</v>
       </c>
       <c r="H39" s="1">
-        <f>ROUNDUP(SQRT(     (1/C39)^2   * D39^2     + (1/C40)^2   *D39^2 ),3)</f>
+        <f t="shared" si="5"/>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="K39" s="1">
@@ -4098,22 +4159,22 @@
         <v>1.4</v>
       </c>
       <c r="N39" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="O39" s="3">
         <v>11.54</v>
       </c>
       <c r="P39" s="1">
+        <f t="shared" si="10"/>
+        <v>0.12</v>
+      </c>
+      <c r="Q39" s="2">
         <f t="shared" si="6"/>
-        <v>0.12</v>
-      </c>
-      <c r="Q39" s="2">
-        <f>LN(M39/M40)</f>
         <v>0.55961578793542255</v>
       </c>
       <c r="R39" s="1">
-        <f>ROUNDUP(SQRT(     (1/M39)^2   * N39^2     + (1/M40)^2   *N39^2 ),3)</f>
+        <f t="shared" si="7"/>
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="V39" s="1">
@@ -4126,22 +4187,22 @@
         <v>2</v>
       </c>
       <c r="Y39" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="Z39" s="1">
         <v>11.54</v>
       </c>
       <c r="AA39" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.12</v>
       </c>
       <c r="AB39" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.35667494393873239</v>
       </c>
       <c r="AC39" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.1000000000000004E-2</v>
       </c>
     </row>
@@ -4163,15 +4224,15 @@
         <v>69.61</v>
       </c>
       <c r="F40" s="1">
+        <f t="shared" si="8"/>
+        <v>0.12</v>
+      </c>
+      <c r="G40" s="2">
         <f t="shared" si="4"/>
-        <v>0.12</v>
-      </c>
-      <c r="G40" s="2">
-        <f>LN(C40/C41)</f>
         <v>0.20359895524123936</v>
       </c>
       <c r="H40" s="1">
-        <f>ROUNDUP(SQRT(     (1/C40)^2   * D40^2     + (1/C41)^2   *D40^2 ),3)</f>
+        <f t="shared" si="5"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="K40" s="1">
@@ -4184,18 +4245,18 @@
         <v>0.8</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="O40" s="3">
         <v>13.45</v>
       </c>
       <c r="P40" s="1">
+        <f t="shared" si="10"/>
+        <v>0.12</v>
+      </c>
+      <c r="Q40" s="3">
         <f t="shared" si="6"/>
-        <v>0.12</v>
-      </c>
-      <c r="Q40" s="3">
-        <f>LN(M40/M41)</f>
         <v>0.28768207245178101</v>
       </c>
       <c r="R40" s="1">
@@ -4212,22 +4273,22 @@
         <v>1.4</v>
       </c>
       <c r="Y40" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="Z40" s="1">
         <v>13.48</v>
       </c>
       <c r="AA40" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.12</v>
       </c>
       <c r="AB40" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.15415067982725836</v>
       </c>
       <c r="AC40" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
@@ -4249,15 +4310,15 @@
         <v>81.37</v>
       </c>
       <c r="F41" s="1">
+        <f t="shared" si="8"/>
+        <v>0.12</v>
+      </c>
+      <c r="G41" s="2">
         <f t="shared" si="4"/>
-        <v>0.12</v>
-      </c>
-      <c r="G41" s="2">
-        <f>LN(C41/C42)</f>
         <v>0.17589066646366419</v>
       </c>
       <c r="H41" s="1">
-        <f>ROUNDUP(SQRT(     (1/C41)^2   * D41^2     + (1/C42)^2   *D41^2 ),3)</f>
+        <f t="shared" si="5"/>
         <v>3.0000000000000002E-2</v>
       </c>
       <c r="K41" s="1">
@@ -4270,18 +4331,18 @@
         <v>0.6</v>
       </c>
       <c r="N41" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="O41" s="3">
         <v>15.4</v>
       </c>
       <c r="P41" s="1">
+        <f t="shared" si="10"/>
+        <v>0.12</v>
+      </c>
+      <c r="Q41" s="3">
         <f t="shared" si="6"/>
-        <v>0.12</v>
-      </c>
-      <c r="Q41" s="3">
-        <f>LN(M41/M42)</f>
         <v>0.40546510810816422</v>
       </c>
       <c r="R41" s="1">
@@ -4298,22 +4359,22 @@
         <v>1.2</v>
       </c>
       <c r="Y41" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="Z41" s="1">
         <v>15.39</v>
       </c>
       <c r="AA41" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.12</v>
       </c>
       <c r="AB41" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.40546510810816422</v>
       </c>
       <c r="AC41" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -4335,15 +4396,15 @@
         <v>92.88</v>
       </c>
       <c r="F42" s="1">
+        <f t="shared" si="8"/>
+        <v>0.12</v>
+      </c>
+      <c r="G42" s="2">
         <f t="shared" si="4"/>
-        <v>0.12</v>
-      </c>
-      <c r="G42" s="2">
-        <f>LN(C42/C43)</f>
         <v>0.16705408466316607</v>
       </c>
       <c r="H42" s="1">
-        <f>ROUNDUP(SQRT(     (1/C42)^2   * D42^2     + (1/C43)^2   *D42^2 ),3)</f>
+        <f t="shared" si="5"/>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="K42" s="1">
@@ -4356,18 +4417,18 @@
         <v>0.4</v>
       </c>
       <c r="N42" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="O42" s="3">
         <v>17.170000000000002</v>
       </c>
       <c r="P42" s="1">
+        <f t="shared" si="10"/>
+        <v>0.12</v>
+      </c>
+      <c r="Q42" s="3">
         <f t="shared" si="6"/>
-        <v>0.12</v>
-      </c>
-      <c r="Q42" s="3">
-        <f>LN(M42/M43)</f>
         <v>0.28768207245178101</v>
       </c>
       <c r="R42" s="1">
@@ -4384,18 +4445,18 @@
         <v>0.8</v>
       </c>
       <c r="Y42" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="Z42" s="1">
         <v>17.329999999999998</v>
       </c>
       <c r="AA42" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.12</v>
       </c>
       <c r="AB42" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.28768207245178101</v>
       </c>
       <c r="AC42" s="1">
@@ -4421,11 +4482,11 @@
         <v>104.52</v>
       </c>
       <c r="F43" s="1">
+        <f t="shared" si="8"/>
+        <v>0.12</v>
+      </c>
+      <c r="G43" s="3">
         <f t="shared" si="4"/>
-        <v>0.12</v>
-      </c>
-      <c r="G43" s="3">
-        <f>LN(C43/C44)</f>
         <v>9.5310179804324935E-2</v>
       </c>
       <c r="H43" s="1">
@@ -4442,14 +4503,14 @@
         <v>0.3</v>
       </c>
       <c r="N43" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="O43" s="3">
         <v>19.350000000000001</v>
       </c>
       <c r="P43" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.12</v>
       </c>
       <c r="Q43" s="2" t="s">
@@ -4468,22 +4529,22 @@
         <v>0.6</v>
       </c>
       <c r="Y43" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="Z43" s="1">
         <v>19.18</v>
       </c>
       <c r="AA43" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.12</v>
       </c>
       <c r="AB43" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.40546510810816422</v>
       </c>
       <c r="AC43" s="1">
-        <f t="shared" ref="AC43:AC45" si="11">ROUNDUP(SQRT(     (1/X43)^2   * Y43^2     + (1/X44)^2   *Y43^2 ),2)</f>
+        <f t="shared" ref="AC43:AC45" si="15">ROUNDUP(SQRT(     (1/X43)^2   * Y43^2     + (1/X44)^2   *Y43^2 ),2)</f>
         <v>0.18000000000000002</v>
       </c>
     </row>
@@ -4505,11 +4566,11 @@
         <v>114.27</v>
       </c>
       <c r="F44" s="1">
+        <f t="shared" si="8"/>
+        <v>0.12</v>
+      </c>
+      <c r="G44" s="2">
         <f t="shared" si="4"/>
-        <v>0.12</v>
-      </c>
-      <c r="G44" s="2">
-        <f>LN(C44/C45)</f>
         <v>0.35667494393873239</v>
       </c>
       <c r="H44" s="1">
@@ -4526,14 +4587,14 @@
         <v>0.1</v>
       </c>
       <c r="N44" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="O44" s="3">
         <v>21</v>
       </c>
       <c r="P44" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.12</v>
       </c>
       <c r="Q44" s="2" t="s">
@@ -4552,22 +4613,22 @@
         <v>0.4</v>
       </c>
       <c r="Y44" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="Z44" s="1">
         <v>21.06</v>
       </c>
       <c r="AA44" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.12</v>
       </c>
       <c r="AB44" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.28768207245178101</v>
       </c>
       <c r="AC44" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.25</v>
       </c>
     </row>
@@ -4589,11 +4650,11 @@
         <v>127.68</v>
       </c>
       <c r="F45" s="1">
+        <f t="shared" si="8"/>
+        <v>0.12</v>
+      </c>
+      <c r="G45" s="2">
         <f t="shared" si="4"/>
-        <v>0.12</v>
-      </c>
-      <c r="G45" s="2">
-        <f>LN(C45/C46)</f>
         <v>0.15415067982725836</v>
       </c>
       <c r="H45" s="1">
@@ -4610,14 +4671,14 @@
         <v>0</v>
       </c>
       <c r="N45" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="O45" s="3">
         <v>24.05</v>
       </c>
       <c r="P45" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.12</v>
       </c>
       <c r="Q45" s="1" t="s">
@@ -4636,22 +4697,22 @@
         <v>0.3</v>
       </c>
       <c r="Y45" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="Z45" s="1">
         <v>22.99</v>
       </c>
       <c r="AA45" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.12</v>
       </c>
       <c r="AB45" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.40546510810816422</v>
       </c>
       <c r="AC45" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.35000000000000003</v>
       </c>
     </row>
@@ -4673,11 +4734,11 @@
         <v>139</v>
       </c>
       <c r="F46" s="1">
+        <f t="shared" si="8"/>
+        <v>0.12</v>
+      </c>
+      <c r="G46" s="2">
         <f t="shared" si="4"/>
-        <v>0.12</v>
-      </c>
-      <c r="G46" s="2">
-        <f>LN(C46/C47)</f>
         <v>0.18232155679395459</v>
       </c>
       <c r="H46" s="1">
@@ -4687,14 +4748,14 @@
       <c r="L46" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M46" s="9">
+      <c r="M46" s="11">
         <v>0.34</v>
       </c>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
       <c r="V46" s="1">
         <v>13</v>
       </c>
@@ -4705,14 +4766,14 @@
         <v>0.2</v>
       </c>
       <c r="Y46" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="Z46" s="1">
         <v>24.82</v>
       </c>
       <c r="AA46" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.12</v>
       </c>
       <c r="AB46" s="2" t="s">
@@ -4740,7 +4801,7 @@
         <v>151.19999999999999</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -4752,14 +4813,14 @@
       <c r="L47" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M47" s="9">
+      <c r="M47" s="11">
         <v>0.04</v>
       </c>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
       <c r="V47" s="1">
         <v>14</v>
       </c>
@@ -4770,14 +4831,14 @@
         <v>0.1</v>
       </c>
       <c r="Y47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="Z47" s="1">
         <v>26.79</v>
       </c>
       <c r="AA47" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.12</v>
       </c>
       <c r="AB47" s="2" t="s">
@@ -4805,7 +4866,7 @@
         <v>162.19999999999999</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -4824,14 +4885,14 @@
         <v>0</v>
       </c>
       <c r="Y48" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="Z48" s="1">
         <v>28.62</v>
       </c>
       <c r="AA48" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.12</v>
       </c>
       <c r="AB48" s="1" t="s">
@@ -4859,7 +4920,7 @@
         <v>163.69999999999999</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -4872,68 +4933,68 @@
       <c r="W49" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="X49" s="9">
+      <c r="X49" s="11">
         <v>0.28999999999999998</v>
       </c>
-      <c r="Y49" s="9"/>
-      <c r="Z49" s="9"/>
-      <c r="AA49" s="9"/>
-      <c r="AB49" s="9"/>
-      <c r="AC49" s="9"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="11"/>
     </row>
     <row r="50" spans="1:29">
       <c r="B50" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="11">
         <v>0.158</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
       <c r="W50" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="X50" s="9">
+      <c r="X50" s="11">
         <v>0.15</v>
       </c>
-      <c r="Y50" s="9"/>
-      <c r="Z50" s="9"/>
-      <c r="AA50" s="9"/>
-      <c r="AB50" s="9"/>
-      <c r="AC50" s="9"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="11"/>
     </row>
     <row r="51" spans="1:29">
       <c r="B51" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="11">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
       <c r="Y51" s="2"/>
     </row>
     <row r="52" spans="1:29">
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:29">
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
     </row>
     <row r="55" spans="1:29">
       <c r="K55" s="1">
@@ -5034,42 +5095,42 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" ref="D61:D69" si="12">ROUNDUP(0.3/100*C61+0.001,3)</f>
+        <f t="shared" ref="D61:D69" si="16">ROUNDUP(0.3/100*C61+0.001,3)</f>
         <v>1.3999999999999999E-2</v>
       </c>
       <c r="E61" s="3">
         <v>16.989999999999998</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" ref="F61:F69" si="13">ROUNDUP(SQRT(0.01 ^ 2 / 3 + 0.2 ^ 2 / 3),2)</f>
+        <f t="shared" ref="F61:F69" si="17">ROUNDUP(SQRT(0.01 ^ 2 / 3 + 0.2 ^ 2 / 3),2)</f>
         <v>0.12</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" ref="G61:G69" si="14">E61/B61</f>
+        <f t="shared" ref="G61:G69" si="18">E61/B61</f>
         <v>3.3979999999999997</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" ref="H61:H63" si="15">ROUNDUP(SQRT(0.01 ^ 2 / 3 + 0.2 ^ 2 / 3) / 5,3)</f>
+        <f t="shared" ref="H61:H63" si="19">ROUNDUP(SQRT(0.01 ^ 2 / 3 + 0.2 ^ 2 / 3) / 5,3)</f>
         <v>2.4E-2</v>
       </c>
       <c r="I61" s="2">
-        <f t="shared" ref="I61:I69" si="16">2*PI()/G61</f>
+        <f t="shared" ref="I61:I69" si="20">2*PI()/G61</f>
         <v>1.8490833746849873</v>
       </c>
       <c r="J61" s="1">
-        <f t="shared" ref="J61:J69" si="17">ROUNDUP(2*PI()/G61*H61,3)</f>
+        <f t="shared" ref="J61:J66" si="21">ROUNDUP(2*PI()/G61*H61,3)</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="P61" s="2">
-        <f t="shared" ref="P61:P69" si="18">2*PI()/G61</f>
+        <f t="shared" ref="P61:P69" si="22">2*PI()/G61</f>
         <v>1.8490833746849873</v>
       </c>
       <c r="Q61" s="2">
-        <f t="shared" ref="Q61:Q69" si="19">2*PI()/G74</f>
+        <f t="shared" ref="Q61:Q69" si="23">2*PI()/G74</f>
         <v>1.7993085072106489</v>
       </c>
       <c r="R61" s="3">
-        <f t="shared" ref="R61:R69" si="20">2*PI()/G86</f>
+        <f t="shared" ref="R61:R69" si="24">2*PI()/G86</f>
         <v>1.8044759641526669</v>
       </c>
     </row>
@@ -5084,42 +5145,42 @@
         <v>5.87</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.9E-2</v>
       </c>
       <c r="E62" s="3">
         <v>11.41</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.12</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.282</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2.4E-2</v>
       </c>
       <c r="I62" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2.7533677945572244</v>
       </c>
       <c r="J62" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="P62" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2.7533677945572244</v>
       </c>
       <c r="Q62" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2.8404996867900478</v>
       </c>
       <c r="R62" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2.7557830294647303</v>
       </c>
     </row>
@@ -5135,42 +5196,42 @@
         <v>8.1</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.6000000000000002E-2</v>
       </c>
       <c r="E63" s="3">
         <v>8.25</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.12</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.65</v>
       </c>
       <c r="H63" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2.4E-2</v>
       </c>
       <c r="I63" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>3.8079910952603555</v>
       </c>
       <c r="J63" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="P63" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>3.8079910952603555</v>
       </c>
       <c r="Q63" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3.8079910952603555</v>
       </c>
       <c r="R63" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>3.7003447038749036</v>
       </c>
     </row>
@@ -5182,42 +5243,42 @@
         <v>9.99</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3.1E-2</v>
       </c>
       <c r="E64" s="3">
         <v>13.4</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.12</v>
       </c>
       <c r="G64" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.34</v>
       </c>
       <c r="H64" s="1">
-        <f t="shared" ref="H64:H69" si="21">ROUNDUP(SQRT(0.01 ^ 2 / 3 + 0.2 ^ 2 / 3) / 10,3)</f>
+        <f t="shared" ref="H64:H69" si="25">ROUNDUP(SQRT(0.01 ^ 2 / 3 + 0.2 ^ 2 / 3) / 10,3)</f>
         <v>1.2E-2</v>
       </c>
       <c r="I64" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4.6889442590892436</v>
       </c>
       <c r="J64" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="P64" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4.6889442590892436</v>
       </c>
       <c r="Q64" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4.7384504579031566</v>
       </c>
       <c r="R64" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>4.6132050713506514</v>
       </c>
     </row>
@@ -5229,42 +5290,42 @@
         <v>12.14</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="E65" s="3">
         <v>11.02</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.12</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.1019999999999999</v>
       </c>
       <c r="H65" s="1">
+        <f t="shared" si="25"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="I65" s="2">
+        <f t="shared" si="20"/>
+        <v>5.7016200609615124</v>
+      </c>
+      <c r="J65" s="1">
         <f t="shared" si="21"/>
-        <v>1.2E-2</v>
-      </c>
-      <c r="I65" s="2">
-        <f t="shared" si="16"/>
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="P65" s="2">
+        <f t="shared" si="22"/>
         <v>5.7016200609615124</v>
       </c>
-      <c r="J65" s="1">
-        <f t="shared" si="17"/>
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="P65" s="2">
-        <f t="shared" si="18"/>
-        <v>5.7016200609615124</v>
-      </c>
       <c r="Q65" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5.6861405494837882</v>
       </c>
       <c r="R65" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>5.6452698177714167</v>
       </c>
     </row>
@@ -5276,42 +5337,42 @@
         <v>13.9</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>4.3000000000000003E-2</v>
       </c>
       <c r="E66" s="3">
         <v>9.6</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.12</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.96</v>
       </c>
       <c r="H66" s="1">
+        <f t="shared" si="25"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="I66" s="2">
+        <f t="shared" si="20"/>
+        <v>6.5449846949787363</v>
+      </c>
+      <c r="J66" s="1">
         <f t="shared" si="21"/>
-        <v>1.2E-2</v>
-      </c>
-      <c r="I66" s="2">
-        <f t="shared" si="16"/>
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="P66" s="2">
+        <f t="shared" si="22"/>
         <v>6.5449846949787363</v>
       </c>
-      <c r="J66" s="1">
-        <f t="shared" si="17"/>
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="P66" s="2">
-        <f t="shared" si="18"/>
-        <v>6.5449846949787363</v>
-      </c>
       <c r="Q66" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>6.4841953634464256</v>
       </c>
       <c r="R66" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>6.7271791297425985</v>
       </c>
     </row>
@@ -5323,26 +5384,26 @@
         <v>15.94</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="E67" s="3">
         <v>7.57</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.12</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.75700000000000001</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.2E-2</v>
       </c>
-      <c r="I67" s="10">
-        <f t="shared" si="16"/>
+      <c r="I67" s="9">
+        <f t="shared" si="20"/>
         <v>8.3001126911223064</v>
       </c>
       <c r="J67" s="1">
@@ -5350,15 +5411,15 @@
         <v>0.1</v>
       </c>
       <c r="P67" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>8.3001126911223064</v>
       </c>
       <c r="Q67" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>7.462215329191908</v>
       </c>
       <c r="R67" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>7.5067924816960412</v>
       </c>
     </row>
@@ -5370,26 +5431,26 @@
         <v>17.989999999999998</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>5.5E-2</v>
       </c>
       <c r="E68" s="3">
         <v>7.4</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.12</v>
       </c>
       <c r="G68" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.74</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.2E-2</v>
       </c>
       <c r="I68" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>8.4907909556480892</v>
       </c>
       <c r="J68" s="1">
@@ -5397,15 +5458,15 @@
         <v>0.11</v>
       </c>
       <c r="P68" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>8.4907909556480892</v>
       </c>
       <c r="Q68" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>8.4451415419080469</v>
       </c>
       <c r="R68" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>8.3552996106111515</v>
       </c>
     </row>
@@ -5417,26 +5478,26 @@
         <v>19.98</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="E69" s="3">
         <v>6.67</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.12</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.66700000000000004</v>
       </c>
       <c r="H69" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.2E-2</v>
       </c>
       <c r="I69" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>9.4200679268059755</v>
       </c>
       <c r="J69" s="1">
@@ -5444,15 +5505,15 @@
         <v>0.12</v>
       </c>
       <c r="P69" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>9.4200679268059755</v>
       </c>
       <c r="Q69" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>9.4626284746680529</v>
       </c>
       <c r="R69" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>9.5199777381508888</v>
       </c>
     </row>
@@ -5506,7 +5567,7 @@
         <v>36.799999999999997</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" ref="F73:F82" si="22">ROUNDUP(SQRT(0.01 ^ 2 / 3 + 0.2 ^ 2 / 3),2)</f>
+        <f t="shared" ref="F73:F82" si="26">ROUNDUP(SQRT(0.01 ^ 2 / 3 + 0.2 ^ 2 / 3),2)</f>
         <v>0.12</v>
       </c>
       <c r="G73" s="2">
@@ -5534,30 +5595,30 @@
         <v>3.92</v>
       </c>
       <c r="D74" s="2">
-        <f t="shared" ref="D74:D82" si="23">ROUNDUP(0.3/100*C74+0.001,4)</f>
+        <f t="shared" ref="D74:D82" si="27">ROUNDUP(0.3/100*C74+0.001,4)</f>
         <v>1.2799999999999999E-2</v>
       </c>
       <c r="E74" s="3">
         <v>17.46</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.12</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" ref="G74:G82" si="24">E74/B74</f>
+        <f t="shared" ref="G74:G82" si="28">E74/B74</f>
         <v>3.492</v>
       </c>
       <c r="H74" s="1">
-        <f t="shared" ref="H74:H77" si="25">ROUNDUP(SQRT(0.01 ^ 2 / 3 + 0.2 ^ 2 / 3) / 5,3)</f>
+        <f t="shared" ref="H74:H77" si="29">ROUNDUP(SQRT(0.01 ^ 2 / 3 + 0.2 ^ 2 / 3) / 5,3)</f>
         <v>2.4E-2</v>
       </c>
       <c r="I74" s="2">
-        <f t="shared" ref="I74:I82" si="26">2*PI()/G74</f>
+        <f t="shared" ref="I74:I82" si="30">2*PI()/G74</f>
         <v>1.7993085072106489</v>
       </c>
       <c r="J74" s="1">
-        <f t="shared" ref="J74:J82" si="27">ROUNDUP(2*PI()/G74*H74,3)</f>
+        <f t="shared" ref="J74:J80" si="31">ROUNDUP(2*PI()/G74*H74,3)</f>
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
@@ -5573,30 +5634,30 @@
         <v>6.14</v>
       </c>
       <c r="D75" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1.95E-2</v>
       </c>
       <c r="E75" s="3">
         <v>11.06</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.12</v>
       </c>
       <c r="G75" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2.2120000000000002</v>
       </c>
       <c r="H75" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>2.4E-2</v>
       </c>
       <c r="I75" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>2.8404996867900478</v>
       </c>
       <c r="J75" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
@@ -5608,30 +5669,30 @@
         <v>8.15</v>
       </c>
       <c r="D76" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>2.5499999999999998E-2</v>
       </c>
       <c r="E76" s="3">
         <v>8.25</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.12</v>
       </c>
       <c r="G76" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1.65</v>
       </c>
       <c r="H76" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>2.4E-2</v>
       </c>
       <c r="I76" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>3.8079910952603555</v>
       </c>
       <c r="J76" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
@@ -5643,26 +5704,26 @@
         <v>10.01</v>
       </c>
       <c r="D77" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>3.1099999999999999E-2</v>
       </c>
       <c r="E77" s="3">
         <v>6.63</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.12</v>
       </c>
       <c r="G77" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1.3260000000000001</v>
       </c>
       <c r="H77" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>2.4E-2</v>
       </c>
       <c r="I77" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4.7384504579031566</v>
       </c>
       <c r="J77" s="1">
@@ -5678,30 +5739,30 @@
         <v>12.08</v>
       </c>
       <c r="D78" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>3.73E-2</v>
       </c>
       <c r="E78" s="3">
         <v>11.05</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.12</v>
       </c>
       <c r="G78" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1.105</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" ref="H78:H82" si="28">ROUNDUP(SQRT(0.01 ^ 2 / 3 + 0.2 ^ 2 / 3) / 10,3)</f>
+        <f t="shared" ref="H78:H82" si="32">ROUNDUP(SQRT(0.01 ^ 2 / 3 + 0.2 ^ 2 / 3) / 10,3)</f>
         <v>1.2E-2</v>
       </c>
       <c r="I78" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>5.6861405494837882</v>
       </c>
       <c r="J78" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
@@ -5713,30 +5774,30 @@
         <v>13.97</v>
       </c>
       <c r="D79" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>4.3000000000000003E-2</v>
       </c>
       <c r="E79" s="3">
         <v>9.69</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.12</v>
       </c>
       <c r="G79" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.96899999999999997</v>
       </c>
       <c r="H79" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1.2E-2</v>
       </c>
       <c r="I79" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>6.4841953634464256</v>
       </c>
       <c r="J79" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>7.8E-2</v>
       </c>
     </row>
@@ -5748,30 +5809,30 @@
         <v>15.98</v>
       </c>
       <c r="D80" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="E80" s="3">
         <v>8.42</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.12</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.84199999999999997</v>
       </c>
       <c r="H80" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1.2E-2</v>
       </c>
       <c r="I80" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>7.462215329191908</v>
       </c>
       <c r="J80" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.09</v>
       </c>
     </row>
@@ -5783,26 +5844,26 @@
         <v>18.149999999999999</v>
       </c>
       <c r="D81" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5.5500000000000001E-2</v>
       </c>
       <c r="E81" s="3">
         <v>7.44</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.12</v>
       </c>
       <c r="G81" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.74399999999999999</v>
       </c>
       <c r="H81" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1.2E-2</v>
       </c>
       <c r="I81" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>8.4451415419080469</v>
       </c>
       <c r="J81" s="1">
@@ -5818,26 +5879,26 @@
         <v>20.18</v>
       </c>
       <c r="D82" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>6.1600000000000002E-2</v>
       </c>
       <c r="E82" s="3">
         <v>6.64</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.12</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.66399999999999992</v>
       </c>
       <c r="H82" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1.2E-2</v>
       </c>
       <c r="I82" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>9.4626284746680529</v>
       </c>
       <c r="J82" s="1">
@@ -5926,30 +5987,30 @@
         <v>3.98</v>
       </c>
       <c r="D86" s="2">
-        <f t="shared" ref="D86:D94" si="29">ROUNDUP(0.3/100*C86+0.001,4)</f>
+        <f t="shared" ref="D86:D94" si="33">ROUNDUP(0.3/100*C86+0.001,4)</f>
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="E86" s="3">
         <v>17.41</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" ref="F86:F94" si="30">ROUNDUP(SQRT(0.01 ^ 2 / 3 + 0.2 ^ 2 / 3),2)</f>
+        <f t="shared" ref="F86:F94" si="34">ROUNDUP(SQRT(0.01 ^ 2 / 3 + 0.2 ^ 2 / 3),2)</f>
         <v>0.12</v>
       </c>
       <c r="G86" s="2">
-        <f t="shared" ref="G86:G94" si="31">E86/B86</f>
+        <f t="shared" ref="G86:G94" si="35">E86/B86</f>
         <v>3.4820000000000002</v>
       </c>
       <c r="H86" s="1">
-        <f t="shared" ref="H86:H89" si="32">ROUNDUP(SQRT(0.01 ^ 2 / 3 + 0.2 ^ 2 / 3) / 5,3)</f>
+        <f t="shared" ref="H86:H89" si="36">ROUNDUP(SQRT(0.01 ^ 2 / 3 + 0.2 ^ 2 / 3) / 5,3)</f>
         <v>2.4E-2</v>
       </c>
       <c r="I86" s="2">
-        <f t="shared" ref="I86:I94" si="33">2*PI()/G86</f>
+        <f t="shared" ref="I86:I94" si="37">2*PI()/G86</f>
         <v>1.8044759641526669</v>
       </c>
       <c r="J86" s="1">
-        <f t="shared" ref="J86:J94" si="34">ROUNDUP(2*PI()/G86*H86,3)</f>
+        <f t="shared" ref="J86:J92" si="38">ROUNDUP(2*PI()/G86*H86,3)</f>
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
@@ -5965,30 +6026,30 @@
         <v>5.96</v>
       </c>
       <c r="D87" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1.89E-2</v>
       </c>
       <c r="E87" s="3">
         <v>11.4</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.12</v>
       </c>
       <c r="G87" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>2.2800000000000002</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>2.4E-2</v>
       </c>
       <c r="I87" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>2.7557830294647303</v>
       </c>
       <c r="J87" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
@@ -6000,30 +6061,30 @@
         <v>7.94</v>
       </c>
       <c r="D88" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>2.4899999999999999E-2</v>
       </c>
       <c r="E88" s="3">
         <v>8.49</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.12</v>
       </c>
       <c r="G88" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1.698</v>
       </c>
       <c r="H88" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>2.4E-2</v>
       </c>
       <c r="I88" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>3.7003447038749036</v>
       </c>
       <c r="J88" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
@@ -6035,26 +6096,26 @@
         <v>9.8800000000000008</v>
       </c>
       <c r="D89" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>3.0699999999999998E-2</v>
       </c>
       <c r="E89" s="3">
         <v>6.81</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.12</v>
       </c>
       <c r="G89" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1.3619999999999999</v>
       </c>
       <c r="H89" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>2.4E-2</v>
       </c>
       <c r="I89" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>4.6132050713506514</v>
       </c>
       <c r="J89" s="1">
@@ -6070,30 +6131,30 @@
         <v>12.11</v>
       </c>
       <c r="D90" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>3.7400000000000003E-2</v>
       </c>
       <c r="E90" s="3">
         <v>11.13</v>
       </c>
       <c r="F90" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.12</v>
       </c>
       <c r="G90" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1.113</v>
       </c>
       <c r="H90" s="1">
-        <f t="shared" ref="H90:H94" si="35">ROUNDUP(SQRT(0.01 ^ 2 / 3 + 0.2 ^ 2 / 3) / 10,3)</f>
+        <f t="shared" ref="H90:H94" si="39">ROUNDUP(SQRT(0.01 ^ 2 / 3 + 0.2 ^ 2 / 3) / 10,3)</f>
         <v>1.2E-2</v>
       </c>
       <c r="I90" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>5.6452698177714167</v>
       </c>
       <c r="J90" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
@@ -6105,30 +6166,30 @@
         <v>14.36</v>
       </c>
       <c r="D91" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>4.41E-2</v>
       </c>
       <c r="E91" s="3">
         <v>9.34</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.12</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.93399999999999994</v>
       </c>
       <c r="H91" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1.2E-2</v>
       </c>
       <c r="I91" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>6.7271791297425985</v>
       </c>
       <c r="J91" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
@@ -6140,30 +6201,30 @@
         <v>15.99</v>
       </c>
       <c r="D92" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="E92" s="3">
         <v>8.3699999999999992</v>
       </c>
       <c r="F92" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.12</v>
       </c>
       <c r="G92" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.83699999999999997</v>
       </c>
       <c r="H92" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1.2E-2</v>
       </c>
       <c r="I92" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>7.5067924816960412</v>
       </c>
       <c r="J92" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
@@ -6175,26 +6236,26 @@
         <v>17.899999999999999</v>
       </c>
       <c r="D93" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>5.4699999999999999E-2</v>
       </c>
       <c r="E93" s="3">
         <v>7.52</v>
       </c>
       <c r="F93" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.12</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.752</v>
       </c>
       <c r="H93" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1.2E-2</v>
       </c>
       <c r="I93" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>8.3552996106111515</v>
       </c>
       <c r="J93" s="1">
@@ -6210,26 +6271,26 @@
         <v>20.27</v>
       </c>
       <c r="D94" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>6.1900000000000004E-2</v>
       </c>
       <c r="E94" s="3">
         <v>6.6</v>
       </c>
       <c r="F94" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.12</v>
       </c>
       <c r="G94" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.65999999999999992</v>
       </c>
       <c r="H94" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1.2E-2</v>
       </c>
       <c r="I94" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>9.5199777381508888</v>
       </c>
       <c r="J94" s="1">
@@ -6297,7 +6358,9 @@
       <c r="E101" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F101" s="4"/>
+      <c r="F101" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4" t="s">
         <v>23</v>
@@ -6337,10 +6400,10 @@
       <c r="A102" s="5">
         <v>0.32</v>
       </c>
-      <c r="B102" s="11">
+      <c r="B102" s="10">
         <v>2.1629999999999998</v>
       </c>
-      <c r="C102" s="11">
+      <c r="C102" s="10">
         <f>ROUNDUP(0.3/100*B102+0.001,4)</f>
         <v>7.5000000000000006E-3</v>
       </c>
@@ -6348,18 +6411,21 @@
         <v>0.4</v>
       </c>
       <c r="E102" s="4">
-        <f t="shared" ref="E102:E117" si="36">ROUNDUP(0.1/SQRT(3),3)</f>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="F102" s="4"/>
+        <f t="shared" ref="E102:E117" si="40">ROUNDUP(0.1/SQRT(3),3)</f>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F102" s="4">
+        <f>0.4705*B102-0.0462</f>
+        <v>0.97149149999999973</v>
+      </c>
       <c r="G102" s="4"/>
       <c r="H102" s="5">
         <v>0.27</v>
       </c>
-      <c r="I102" s="11">
+      <c r="I102" s="10">
         <v>2.569</v>
       </c>
-      <c r="J102" s="11">
+      <c r="J102" s="10">
         <f>ROUNDUP(0.3/100*I102+0.001,4)</f>
         <v>8.7999999999999988E-3</v>
       </c>
@@ -6367,18 +6433,21 @@
         <v>0.2</v>
       </c>
       <c r="L102" s="4">
-        <f t="shared" ref="L102:L119" si="37">ROUNDUP(0.1/SQRT(3),3)</f>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="M102" s="4"/>
+        <f t="shared" ref="L102:L119" si="41">ROUNDUP(0.1/SQRT(3),3)</f>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M102" s="4">
+        <f>0.4705*I102-0.0462</f>
+        <v>1.1625144999999999</v>
+      </c>
       <c r="N102" s="4"/>
       <c r="O102" s="5">
         <v>0.21</v>
       </c>
-      <c r="P102" s="11">
+      <c r="P102" s="10">
         <v>2.6179999999999999</v>
       </c>
-      <c r="Q102" s="11">
+      <c r="Q102" s="10">
         <f>ROUNDUP(0.3/100*P102+0.001,4)</f>
         <v>8.8999999999999999E-3</v>
       </c>
@@ -6386,10 +6455,13 @@
         <v>0.3</v>
       </c>
       <c r="S102" s="4">
-        <f t="shared" ref="S102:S121" si="38">ROUNDUP(0.1/SQRT(3),3)</f>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="T102" s="4"/>
+        <f t="shared" ref="S102:S121" si="42">ROUNDUP(0.1/SQRT(3),3)</f>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="T102" s="4">
+        <f>0.4705*P102-0.0462</f>
+        <v>1.1855689999999999</v>
+      </c>
     </row>
     <row r="103" spans="1:20">
       <c r="A103" s="4" t="s">
@@ -6399,17 +6471,20 @@
         <v>3.371</v>
       </c>
       <c r="C103" s="5">
-        <f t="shared" ref="C103:C117" si="39">ROUNDUP(0.3/100*B103+0.001,3)</f>
+        <f t="shared" ref="C103:C117" si="43">ROUNDUP(0.3/100*B103+0.001,3)</f>
         <v>1.2E-2</v>
       </c>
       <c r="D103" s="5">
         <v>0.4</v>
       </c>
       <c r="E103" s="4">
-        <f t="shared" si="36"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="F103" s="4"/>
+        <f t="shared" si="40"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F103" s="4">
+        <f t="shared" ref="F103:F117" si="44">0.4705*B103-0.0462</f>
+        <v>1.5398554999999998</v>
+      </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4" t="s">
         <v>22</v>
@@ -6425,10 +6500,13 @@
         <v>0.2</v>
       </c>
       <c r="L103" s="4">
-        <f t="shared" si="37"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="M103" s="4"/>
+        <f t="shared" si="41"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M103" s="4">
+        <f t="shared" ref="M103:M119" si="45">0.4705*I103-0.0462</f>
+        <v>1.4410505</v>
+      </c>
       <c r="N103" s="4"/>
       <c r="O103" s="4" t="s">
         <v>22</v>
@@ -6444,10 +6522,13 @@
         <v>0.4</v>
       </c>
       <c r="S103" s="4">
-        <f t="shared" si="38"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="T103" s="4"/>
+        <f t="shared" si="42"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="T103" s="4">
+        <f t="shared" ref="T103:T121" si="46">0.4705*P103-0.0462</f>
+        <v>1.5996090000000001</v>
+      </c>
     </row>
     <row r="104" spans="1:20">
       <c r="A104" s="5">
@@ -6458,17 +6539,20 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="C104" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1.3999999999999999E-2</v>
       </c>
       <c r="D104" s="5">
         <v>0.6</v>
       </c>
       <c r="E104" s="4">
-        <f t="shared" si="36"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="F104" s="4"/>
+        <f t="shared" si="40"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F104" s="4">
+        <f t="shared" si="44"/>
+        <v>1.8452099999999996</v>
+      </c>
       <c r="G104" s="4"/>
       <c r="H104" s="5">
         <f>ROUNDUP(2/100*H102+0.05,3)</f>
@@ -6478,17 +6562,20 @@
         <v>4.03</v>
       </c>
       <c r="J104" s="5">
-        <f t="shared" ref="J104:J119" si="40">ROUNDUP(0.3/100*I104+0.001,3)</f>
+        <f t="shared" ref="J104:J119" si="47">ROUNDUP(0.3/100*I104+0.001,3)</f>
         <v>1.3999999999999999E-2</v>
       </c>
       <c r="K104" s="5">
         <v>0.6</v>
       </c>
       <c r="L104" s="4">
-        <f t="shared" si="37"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="M104" s="4"/>
+        <f t="shared" si="41"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M104" s="4">
+        <f t="shared" si="45"/>
+        <v>1.849915</v>
+      </c>
       <c r="N104" s="4"/>
       <c r="O104" s="5">
         <f>ROUNDUP(2/100*O102+0.05,3)</f>
@@ -6498,17 +6585,20 @@
         <v>4.13</v>
       </c>
       <c r="Q104" s="5">
-        <f t="shared" ref="Q104:Q121" si="41">ROUNDUP(0.3/100*P104+0.001,3)</f>
+        <f t="shared" ref="Q104:Q121" si="48">ROUNDUP(0.3/100*P104+0.001,3)</f>
         <v>1.3999999999999999E-2</v>
       </c>
       <c r="R104" s="5">
         <v>0.6</v>
       </c>
       <c r="S104" s="4">
-        <f t="shared" si="38"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="T104" s="4"/>
+        <f t="shared" si="42"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="T104" s="4">
+        <f t="shared" si="46"/>
+        <v>1.8969649999999998</v>
+      </c>
     </row>
     <row r="105" spans="1:20">
       <c r="A105" s="4"/>
@@ -6516,51 +6606,60 @@
         <v>5.2</v>
       </c>
       <c r="C105" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="D105" s="5">
         <v>0.9</v>
       </c>
       <c r="E105" s="4">
-        <f t="shared" si="36"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="F105" s="4"/>
+        <f t="shared" si="40"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F105" s="4">
+        <f t="shared" si="44"/>
+        <v>2.4004000000000003</v>
+      </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
       <c r="I105" s="5">
         <v>5.19</v>
       </c>
       <c r="J105" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="K105" s="5">
         <v>0.8</v>
       </c>
       <c r="L105" s="4">
-        <f t="shared" si="37"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="M105" s="4"/>
+        <f t="shared" si="41"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M105" s="4">
+        <f t="shared" si="45"/>
+        <v>2.3956950000000004</v>
+      </c>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
       <c r="P105" s="5">
         <v>4.95</v>
       </c>
       <c r="Q105" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>1.6E-2</v>
       </c>
       <c r="R105" s="5">
         <v>0.8</v>
       </c>
       <c r="S105" s="4">
-        <f t="shared" si="38"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="T105" s="4"/>
+        <f t="shared" si="42"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="T105" s="4">
+        <f t="shared" si="46"/>
+        <v>2.282775</v>
+      </c>
     </row>
     <row r="106" spans="1:20">
       <c r="A106" s="4"/>
@@ -6568,51 +6667,60 @@
         <v>5.98</v>
       </c>
       <c r="C106" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1.9E-2</v>
       </c>
       <c r="D106" s="5">
         <v>1.4</v>
       </c>
       <c r="E106" s="4">
-        <f t="shared" si="36"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="F106" s="4"/>
+        <f t="shared" si="40"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F106" s="4">
+        <f t="shared" si="44"/>
+        <v>2.7673900000000002</v>
+      </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
       <c r="I106" s="5">
         <v>6.33</v>
       </c>
       <c r="J106" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>0.02</v>
       </c>
       <c r="K106" s="5">
         <v>2</v>
       </c>
       <c r="L106" s="4">
-        <f t="shared" si="37"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="M106" s="4"/>
+        <f t="shared" si="41"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M106" s="4">
+        <f t="shared" si="45"/>
+        <v>2.9320650000000001</v>
+      </c>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
       <c r="P106" s="5">
         <v>5.73</v>
       </c>
       <c r="Q106" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>1.9E-2</v>
       </c>
       <c r="R106" s="5">
         <v>1</v>
       </c>
       <c r="S106" s="4">
-        <f t="shared" si="38"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="T106" s="4"/>
+        <f t="shared" si="42"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="T106" s="4">
+        <f t="shared" si="46"/>
+        <v>2.6497650000000004</v>
+      </c>
     </row>
     <row r="107" spans="1:20">
       <c r="A107" s="4"/>
@@ -6620,51 +6728,60 @@
         <v>6.62</v>
       </c>
       <c r="C107" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="D107" s="5">
         <v>4.2</v>
       </c>
       <c r="E107" s="4">
-        <f t="shared" si="36"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="F107" s="4"/>
+        <f t="shared" si="40"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F107" s="4">
+        <f t="shared" si="44"/>
+        <v>3.0685100000000003</v>
+      </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
       <c r="I107" s="5">
         <v>6.44</v>
       </c>
       <c r="J107" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="K107" s="5">
         <v>3.1</v>
       </c>
       <c r="L107" s="4">
-        <f t="shared" si="37"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="M107" s="4"/>
+        <f t="shared" si="41"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M107" s="4">
+        <f t="shared" si="45"/>
+        <v>2.9838200000000001</v>
+      </c>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
       <c r="P107" s="5">
         <v>6.6</v>
       </c>
       <c r="Q107" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="R107" s="5">
         <v>4</v>
       </c>
       <c r="S107" s="4">
-        <f t="shared" si="38"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="T107" s="4"/>
+        <f t="shared" si="42"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="T107" s="4">
+        <f t="shared" si="46"/>
+        <v>3.0590999999999999</v>
+      </c>
     </row>
     <row r="108" spans="1:20">
       <c r="A108" s="4"/>
@@ -6672,51 +6789,60 @@
         <v>6.78</v>
       </c>
       <c r="C108" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>2.2000000000000002E-2</v>
       </c>
       <c r="D108" s="5">
         <v>6.4</v>
       </c>
       <c r="E108" s="4">
-        <f t="shared" si="36"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="F108" s="4"/>
+        <f t="shared" si="40"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F108" s="4">
+        <f t="shared" si="44"/>
+        <v>3.1437900000000001</v>
+      </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="I108" s="5">
         <v>6.59</v>
       </c>
       <c r="J108" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="K108" s="5">
         <v>4.8</v>
       </c>
       <c r="L108" s="4">
-        <f t="shared" si="37"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="M108" s="4"/>
+        <f t="shared" si="41"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M108" s="4">
+        <f t="shared" si="45"/>
+        <v>3.054395</v>
+      </c>
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
       <c r="P108" s="5">
         <v>6.75</v>
       </c>
       <c r="Q108" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>2.2000000000000002E-2</v>
       </c>
       <c r="R108" s="5">
         <v>8.4</v>
       </c>
       <c r="S108" s="4">
-        <f t="shared" si="38"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="T108" s="4"/>
+        <f t="shared" si="42"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="T108" s="4">
+        <f t="shared" si="46"/>
+        <v>3.1296750000000002</v>
+      </c>
     </row>
     <row r="109" spans="1:20">
       <c r="A109" s="4"/>
@@ -6724,51 +6850,60 @@
         <v>6.89</v>
       </c>
       <c r="C109" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>2.2000000000000002E-2</v>
       </c>
       <c r="D109" s="5">
         <v>9.1999999999999993</v>
       </c>
       <c r="E109" s="4">
-        <f t="shared" si="36"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="F109" s="4"/>
+        <f t="shared" si="40"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F109" s="4">
+        <f t="shared" si="44"/>
+        <v>3.1955450000000001</v>
+      </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
       <c r="I109" s="5">
         <v>6.78</v>
       </c>
       <c r="J109" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>2.2000000000000002E-2</v>
       </c>
       <c r="K109" s="5">
         <v>8.8000000000000007</v>
       </c>
       <c r="L109" s="4">
-        <f t="shared" si="37"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="M109" s="4"/>
+        <f t="shared" si="41"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M109" s="4">
+        <f t="shared" si="45"/>
+        <v>3.1437900000000001</v>
+      </c>
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
       <c r="P109" s="5">
         <v>6.9</v>
       </c>
       <c r="Q109" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>2.2000000000000002E-2</v>
       </c>
       <c r="R109" s="5">
         <v>15</v>
       </c>
       <c r="S109" s="4">
-        <f t="shared" si="38"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="T109" s="4"/>
+        <f t="shared" si="42"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="T109" s="4">
+        <f t="shared" si="46"/>
+        <v>3.20025</v>
+      </c>
     </row>
     <row r="110" spans="1:20">
       <c r="A110" s="4"/>
@@ -6776,51 +6911,60 @@
         <v>7</v>
       </c>
       <c r="C110" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="D110" s="5">
         <v>9.6999999999999993</v>
       </c>
       <c r="E110" s="4">
-        <f t="shared" si="36"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="F110" s="4"/>
+        <f t="shared" si="40"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F110" s="4">
+        <f t="shared" si="44"/>
+        <v>3.2473000000000001</v>
+      </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
       <c r="I110" s="5">
         <v>6.9</v>
       </c>
       <c r="J110" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>2.2000000000000002E-2</v>
       </c>
       <c r="K110" s="5">
         <v>12</v>
       </c>
       <c r="L110" s="4">
-        <f t="shared" si="37"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="M110" s="4"/>
+        <f t="shared" si="41"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M110" s="4">
+        <f t="shared" si="45"/>
+        <v>3.20025</v>
+      </c>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
       <c r="P110" s="5">
         <v>6.95</v>
       </c>
       <c r="Q110" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>2.2000000000000002E-2</v>
       </c>
       <c r="R110" s="5">
         <v>17</v>
       </c>
       <c r="S110" s="4">
-        <f t="shared" si="38"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="T110" s="4"/>
+        <f t="shared" si="42"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="T110" s="4">
+        <f t="shared" si="46"/>
+        <v>3.2237750000000003</v>
+      </c>
     </row>
     <row r="111" spans="1:20">
       <c r="A111" s="4"/>
@@ -6828,51 +6972,60 @@
         <v>7.14</v>
       </c>
       <c r="C111" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>2.3E-2</v>
       </c>
       <c r="D111" s="5">
         <v>5.5</v>
       </c>
       <c r="E111" s="4">
-        <f t="shared" si="36"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="F111" s="4"/>
+        <f t="shared" si="40"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F111" s="4">
+        <f t="shared" si="44"/>
+        <v>3.3131699999999999</v>
+      </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
       <c r="I111" s="5">
         <v>6.95</v>
       </c>
       <c r="J111" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>2.2000000000000002E-2</v>
       </c>
       <c r="K111" s="5">
         <v>12.8</v>
       </c>
       <c r="L111" s="4">
-        <f t="shared" si="37"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="M111" s="4"/>
+        <f t="shared" si="41"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M111" s="4">
+        <f t="shared" si="45"/>
+        <v>3.2237750000000003</v>
+      </c>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
       <c r="P111" s="5">
         <v>7</v>
       </c>
       <c r="Q111" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="R111" s="5">
         <v>18.8</v>
       </c>
       <c r="S111" s="4">
-        <f t="shared" si="38"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="T111" s="4"/>
+        <f t="shared" si="42"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="T111" s="4">
+        <f t="shared" si="46"/>
+        <v>3.2473000000000001</v>
+      </c>
     </row>
     <row r="112" spans="1:20">
       <c r="A112" s="4"/>
@@ -6880,51 +7033,60 @@
         <v>7.61</v>
       </c>
       <c r="C112" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>2.4E-2</v>
       </c>
       <c r="D112" s="5">
         <v>2</v>
       </c>
       <c r="E112" s="4">
-        <f t="shared" si="36"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="F112" s="4"/>
+        <f t="shared" si="40"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F112" s="4">
+        <f t="shared" si="44"/>
+        <v>3.5343050000000003</v>
+      </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
       <c r="I112" s="5">
         <v>7.04</v>
       </c>
       <c r="J112" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>2.3E-2</v>
       </c>
       <c r="K112" s="5">
         <v>13</v>
       </c>
       <c r="L112" s="4">
-        <f t="shared" si="37"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="M112" s="4"/>
+        <f t="shared" si="41"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M112" s="4">
+        <f t="shared" si="45"/>
+        <v>3.2661199999999999</v>
+      </c>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
       <c r="P112" s="5">
         <v>7.05</v>
       </c>
       <c r="Q112" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>2.3E-2</v>
       </c>
       <c r="R112" s="5">
         <v>19.2</v>
       </c>
       <c r="S112" s="4">
-        <f t="shared" si="38"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="T112" s="4"/>
+        <f t="shared" si="42"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="T112" s="4">
+        <f t="shared" si="46"/>
+        <v>3.2708249999999999</v>
+      </c>
     </row>
     <row r="113" spans="1:20">
       <c r="A113" s="4"/>
@@ -6932,51 +7094,60 @@
         <v>8.5500000000000007</v>
       </c>
       <c r="C113" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>2.7E-2</v>
       </c>
       <c r="D113" s="5">
         <v>0.8</v>
       </c>
       <c r="E113" s="4">
-        <f t="shared" si="36"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="F113" s="4"/>
+        <f t="shared" si="40"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F113" s="4">
+        <f t="shared" si="44"/>
+        <v>3.9765750000000004</v>
+      </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
       <c r="I113" s="5">
         <v>7.21</v>
       </c>
       <c r="J113" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>2.3E-2</v>
       </c>
       <c r="K113" s="5">
         <v>6.4</v>
       </c>
       <c r="L113" s="4">
-        <f t="shared" si="37"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="M113" s="4"/>
+        <f t="shared" si="41"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M113" s="4">
+        <f t="shared" si="45"/>
+        <v>3.3461050000000001</v>
+      </c>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
       <c r="P113" s="5">
         <v>7.19</v>
       </c>
       <c r="Q113" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>2.3E-2</v>
       </c>
       <c r="R113" s="5">
         <v>19.8</v>
       </c>
       <c r="S113" s="4">
-        <f t="shared" si="38"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="T113" s="4"/>
+        <f t="shared" si="42"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="T113" s="4">
+        <f t="shared" si="46"/>
+        <v>3.3366950000000002</v>
+      </c>
     </row>
     <row r="114" spans="1:20">
       <c r="A114" s="4"/>
@@ -6984,51 +7155,60 @@
         <v>9.0299999999999994</v>
       </c>
       <c r="C114" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="D114" s="5">
         <v>0.5</v>
       </c>
       <c r="E114" s="4">
-        <f t="shared" si="36"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="F114" s="4"/>
+        <f t="shared" si="40"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F114" s="4">
+        <f t="shared" si="44"/>
+        <v>4.2024149999999993</v>
+      </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
       <c r="I114" s="5">
         <v>7.35</v>
       </c>
       <c r="J114" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>2.4E-2</v>
       </c>
       <c r="K114" s="5">
         <v>3.8</v>
       </c>
       <c r="L114" s="4">
-        <f t="shared" si="37"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="M114" s="4"/>
+        <f t="shared" si="41"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M114" s="4">
+        <f t="shared" si="45"/>
+        <v>3.411975</v>
+      </c>
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
       <c r="P114" s="5">
         <v>7.37</v>
       </c>
       <c r="Q114" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>2.4E-2</v>
       </c>
       <c r="R114" s="5">
         <v>20</v>
       </c>
       <c r="S114" s="4">
-        <f t="shared" si="38"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="T114" s="4"/>
+        <f t="shared" si="42"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="T114" s="4">
+        <f t="shared" si="46"/>
+        <v>3.4213849999999999</v>
+      </c>
     </row>
     <row r="115" spans="1:20">
       <c r="A115" s="4"/>
@@ -7036,51 +7216,60 @@
         <v>10.31</v>
       </c>
       <c r="C115" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="D115" s="5">
         <v>0.2</v>
       </c>
       <c r="E115" s="4">
-        <f t="shared" si="36"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="F115" s="4"/>
+        <f t="shared" si="40"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F115" s="4">
+        <f t="shared" si="44"/>
+        <v>4.8046550000000003</v>
+      </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
       <c r="I115" s="5">
         <v>7.54</v>
       </c>
       <c r="J115" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>2.4E-2</v>
       </c>
       <c r="K115" s="5">
         <v>2.6</v>
       </c>
       <c r="L115" s="4">
-        <f t="shared" si="37"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="M115" s="4"/>
+        <f t="shared" si="41"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M115" s="4">
+        <f t="shared" si="45"/>
+        <v>3.5013700000000001</v>
+      </c>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
       <c r="P115" s="5">
         <v>7.51</v>
       </c>
       <c r="Q115" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>2.4E-2</v>
       </c>
       <c r="R115" s="5">
         <v>20</v>
       </c>
       <c r="S115" s="4">
-        <f t="shared" si="38"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="T115" s="4"/>
+        <f t="shared" si="42"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="T115" s="4">
+        <f t="shared" si="46"/>
+        <v>3.4872549999999998</v>
+      </c>
     </row>
     <row r="116" spans="1:20">
       <c r="A116" s="4"/>
@@ -7088,51 +7277,60 @@
         <v>11.92</v>
       </c>
       <c r="C116" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="D116" s="5">
         <v>0.1</v>
       </c>
       <c r="E116" s="4">
-        <f t="shared" si="36"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="F116" s="4"/>
+        <f t="shared" si="40"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F116" s="4">
+        <f t="shared" si="44"/>
+        <v>5.5621599999999995</v>
+      </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
       <c r="I116" s="5">
         <v>8.33</v>
       </c>
       <c r="J116" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>2.6000000000000002E-2</v>
       </c>
       <c r="K116" s="5">
         <v>1</v>
       </c>
       <c r="L116" s="4">
-        <f t="shared" si="37"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="M116" s="4"/>
+        <f t="shared" si="41"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M116" s="4">
+        <f t="shared" si="45"/>
+        <v>3.873065</v>
+      </c>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
       <c r="P116" s="5">
         <v>7.65</v>
       </c>
       <c r="Q116" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>2.4E-2</v>
       </c>
       <c r="R116" s="5">
         <v>5</v>
       </c>
       <c r="S116" s="4">
-        <f t="shared" si="38"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="T116" s="4"/>
+        <f t="shared" si="42"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="T116" s="4">
+        <f t="shared" si="46"/>
+        <v>3.5531250000000001</v>
+      </c>
     </row>
     <row r="117" spans="1:20">
       <c r="A117" s="4"/>
@@ -7140,51 +7338,60 @@
         <v>12.69</v>
       </c>
       <c r="C117" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0.04</v>
       </c>
       <c r="D117" s="5">
         <v>0.05</v>
       </c>
       <c r="E117" s="4">
-        <f t="shared" si="36"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="F117" s="4"/>
+        <f t="shared" si="40"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F117" s="4">
+        <f t="shared" si="44"/>
+        <v>5.9244449999999995</v>
+      </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
       <c r="I117" s="5">
         <v>9.2899999999999991</v>
       </c>
       <c r="J117" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="K117" s="5">
         <v>0.6</v>
       </c>
       <c r="L117" s="4">
-        <f t="shared" si="37"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="M117" s="4"/>
+        <f t="shared" si="41"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M117" s="4">
+        <f t="shared" si="45"/>
+        <v>4.3247449999999992</v>
+      </c>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
       <c r="P117" s="5">
         <v>8.24</v>
       </c>
       <c r="Q117" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>2.6000000000000002E-2</v>
       </c>
       <c r="R117" s="5">
         <v>1.4</v>
       </c>
       <c r="S117" s="4">
-        <f t="shared" si="38"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="T117" s="4"/>
+        <f t="shared" si="42"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="T117" s="4">
+        <f t="shared" si="46"/>
+        <v>3.8307199999999999</v>
+      </c>
     </row>
     <row r="118" spans="1:20">
       <c r="A118" s="4"/>
@@ -7199,34 +7406,40 @@
         <v>10.08</v>
       </c>
       <c r="J118" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="K118" s="5">
         <v>0.2</v>
       </c>
       <c r="L118" s="4">
-        <f t="shared" si="37"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="M118" s="4"/>
+        <f t="shared" si="41"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M118" s="4">
+        <f t="shared" si="45"/>
+        <v>4.6964399999999999</v>
+      </c>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
       <c r="P118" s="5">
         <v>8.86</v>
       </c>
       <c r="Q118" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="R118" s="5">
         <v>1</v>
       </c>
       <c r="S118" s="4">
-        <f t="shared" si="38"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="T118" s="4"/>
+        <f t="shared" si="42"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="T118" s="4">
+        <f t="shared" si="46"/>
+        <v>4.1224299999999996</v>
+      </c>
     </row>
     <row r="119" spans="1:20">
       <c r="A119" s="4"/>
@@ -7241,34 +7454,40 @@
         <v>10.85</v>
       </c>
       <c r="J119" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="K119" s="5">
         <v>0.1</v>
       </c>
       <c r="L119" s="4">
-        <f t="shared" si="37"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="M119" s="4"/>
+        <f t="shared" si="41"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M119" s="4">
+        <f t="shared" si="45"/>
+        <v>5.0587249999999999</v>
+      </c>
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
       <c r="P119" s="5">
         <v>9.25</v>
       </c>
       <c r="Q119" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="R119" s="5">
         <v>0.6</v>
       </c>
       <c r="S119" s="4">
-        <f t="shared" si="38"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="T119" s="4"/>
+        <f t="shared" si="42"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="T119" s="4">
+        <f t="shared" si="46"/>
+        <v>4.3059250000000002</v>
+      </c>
     </row>
     <row r="120" spans="1:20">
       <c r="A120" s="4"/>
@@ -7290,17 +7509,20 @@
         <v>10.38</v>
       </c>
       <c r="Q120" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="R120" s="5">
         <v>0.2</v>
       </c>
       <c r="S120" s="4">
-        <f t="shared" si="38"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="T120" s="4"/>
+        <f t="shared" si="42"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="T120" s="4">
+        <f t="shared" si="46"/>
+        <v>4.8375900000000005</v>
+      </c>
     </row>
     <row r="121" spans="1:20">
       <c r="A121" s="4"/>
@@ -7322,17 +7544,20 @@
         <v>11.16</v>
       </c>
       <c r="Q121" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="R121" s="5">
         <v>0.1</v>
       </c>
       <c r="S121" s="4">
-        <f t="shared" si="38"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="T121" s="4"/>
+        <f t="shared" si="42"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="T121" s="4">
+        <f t="shared" si="46"/>
+        <v>5.20458</v>
+      </c>
     </row>
     <row r="122" spans="1:20">
       <c r="A122" s="4"/>
@@ -7402,15 +7627,15 @@
     </row>
     <row r="128" spans="1:20">
       <c r="T128" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129" spans="17:20">
       <c r="Q129" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="R129" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="T129" s="1">
         <f>3.3/0.4</f>
@@ -7425,12 +7650,12 @@
         <v>0.1</v>
       </c>
       <c r="T130" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132" spans="17:20">
       <c r="T132" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="133" spans="17:20">
@@ -7441,12 +7666,12 @@
     </row>
     <row r="134" spans="17:20">
       <c r="T134" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136" spans="17:20">
       <c r="T136" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="137" spans="17:20">
@@ -7457,27 +7682,27 @@
     </row>
     <row r="138" spans="17:20">
       <c r="T138" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148" spans="8:13">
       <c r="H148" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I148" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J148" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K148" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I148" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J148" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K148" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="L148" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M148" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="149" spans="8:13">
@@ -7516,7 +7741,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L150" s="6">
-        <f t="shared" ref="L150:L151" si="42">H150/J150</f>
+        <f t="shared" ref="L150:L151" si="49">H150/J150</f>
         <v>6.3461538461538458</v>
       </c>
       <c r="M150" s="4">
@@ -7538,7 +7763,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L151" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>4.4871794871794872</v>
       </c>
       <c r="M151" s="4">
@@ -7548,14 +7773,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C51:H51"/>
     <mergeCell ref="M46:R46"/>
     <mergeCell ref="M47:R47"/>
     <mergeCell ref="X49:AC49"/>
     <mergeCell ref="X50:AC50"/>
     <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C51:H51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
